--- a/STELARR3/Resources/Files/users.xlsx
+++ b/STELARR3/Resources/Files/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janle\source\repos\lms-stelarr\STELARR3\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114CE1C-AF0F-4314-A3C5-B4798FD98FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA1AFA-0B44-4715-879B-2E77BC0EB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4880" yWindow="3910" windowWidth="28800" windowHeight="15370" xr2:uid="{C05F6333-D33C-44FE-A4CE-C5F72F39D073}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Leo</t>
   </si>
@@ -58,13 +58,19 @@
     <t>ohiggs2</t>
   </si>
   <si>
-    <t>qwer</t>
-  </si>
-  <si>
     <t>ree</t>
   </si>
   <si>
     <t>qwe</t>
+  </si>
+  <si>
+    <t>jras</t>
+  </si>
+  <si>
+    <t>asre</t>
+  </si>
+  <si>
+    <t>ras</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90378344-6A63-4137-B2E7-F4B3FC8DA0B7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -430,7 +436,7 @@
     <col min="1" max="16384" width="10.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -444,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -458,28 +464,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/STELARR3/Resources/Files/users.xlsx
+++ b/STELARR3/Resources/Files/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janle\source\repos\lms-stelarr\STELARR3\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA1AFA-0B44-4715-879B-2E77BC0EB345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26DC89-7CA8-40A7-8914-4553D8A40F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="3910" windowWidth="28800" windowHeight="15370" xr2:uid="{C05F6333-D33C-44FE-A4CE-C5F72F39D073}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15370" xr2:uid="{C05F6333-D33C-44FE-A4CE-C5F72F39D073}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Leo</t>
   </si>
@@ -482,8 +482,11 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
-        <v>123</v>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
